--- a/Sprint 8 version 2.xlsx
+++ b/Sprint 8 version 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/w5086795_wesbank_co_za1/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/w5086795_wesbank_co_za1/Documents/Downloads/ticx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3D16EC4C-E8CC-47A0-9506-18D7E42DF75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9251010E-F541-4970-A9A4-328BF83FF47D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B7033DEF-EE10-4561-BDA1-FBEDE6CD87A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1095">
   <si>
     <t>Issue key</t>
   </si>
@@ -2112,6 +2112,13 @@
     <t>EP - Miles hanging</t>
   </si>
   <si>
+    <t>Miles hanging_x000D_
+_x000D_
+Â _x000D_
+_x000D_
+Purchase Invoice due date dblocks</t>
+  </si>
+  <si>
     <t>Nkosinathi Mahlangu</t>
   </si>
   <si>
@@ -2147,6 +2154,11 @@
   </si>
   <si>
     <t>Currently, Sales have to manually check and trace signed schedules on Miles and it is time consuming, we need a report to show when a signed schedule is loaded or not loaded on Miles. see attached manual report that I was working on it and Miles's screen to show where we are uploading a signed schedule.</t>
+  </si>
+  <si>
+    <t>06/12/23 Selection on Bulk schedules at Customer level to be created and also Contracts with signed schedules to be modified to show Customer bulk schedules.
+01/12/23 Selections created - Dalita will join the Req. meeting today for review and sign-off 
+28/11/23 To discuss with Dalita for details in Req.meeting today</t>
   </si>
   <si>
     <t>FML-5093</t>
@@ -3800,6 +3812,12 @@
     <t>Supplier Report- missing information on report, format of columns (is it duplicate to FML-5405)?</t>
   </si>
   <si>
+    <t>waiting feedback from Dineshan</t>
+  </si>
+  <si>
+    <t>12/12/23 Waiting for Nicolene's feedback</t>
+  </si>
+  <si>
     <t>12/12/23 Awaiting feedback from Deneshan 
 13/11/2023: Nandipha to send out meeting invite to Pran &amp; Deneshan
 9/11/2023: Nandipha said she is waiting to discuss with Pran &amp; Deneshan</t>
@@ -3841,6 +3859,9 @@
     <t>Post deployment</t>
   </si>
   <si>
+    <t>12/12/23 Post deployment testing</t>
+  </si>
+  <si>
     <t>12/12/23 Mandla : Part of EP coming after EP7, to confirm with Deneshan</t>
   </si>
   <si>
@@ -3870,6 +3891,9 @@
     <t>12/12/23 Mandla: To go through PMO</t>
   </si>
   <si>
+    <t>12/12/23 Themba:  Sofico to assist, development almost done,To schedule a meeting with Sofico</t>
+  </si>
+  <si>
     <t>FML-4986</t>
   </si>
   <si>
@@ -3936,60 +3960,23 @@
     <t>INC6575627</t>
   </si>
   <si>
-    <t>12/12/23 Mandla : Deployed to  PROD</t>
-  </si>
-  <si>
-    <t>12/12/23 Deployed to  PROD</t>
-  </si>
-  <si>
-    <t>No attachment, only this information available,Cause possible due to increase in transaction load, black friday/cyber monday weekend.</t>
-  </si>
-  <si>
-    <t>14/12/2023</t>
-  </si>
-  <si>
-    <t>12/12/23 testing to be done by Jane</t>
-  </si>
-  <si>
-    <t>Miles hanging
-Purchase Invoice due date dblocks</t>
-  </si>
-  <si>
-    <t>Password related</t>
-  </si>
-  <si>
-    <t>14/12/2023: XMLs provided for import into QA.
- 13/12/23: Another update with new config sent to update the license TPSC service provider.
+    <t>13/12/23: Another update with new config sent to update the license TPSC service provider.
 08/12/23: Config update with xml sent to Wesbank for testing.
 29/11/23 Pieter has sent the SQL script for updation of Region based on License plates. To discuss with Pran. 
 27/11/23 Pieter and Nicolene to provide detailed logic of how to assign Delivery region based on Licence plate characters. 
 24/11/23 Analysis almost completed of License Regions between Miles and BI extract provided by Nicolene. Will discuss more on Monday meeting.</t>
   </si>
   <si>
-    <t>14/12/2023: Meeting requested with business to demo config changes. XMLs provided to Mandla. 
-06/12/23 Selection on Bulk schedules at Customer level to be created and also Contracts with signed schedules to be modified to show Customer bulk schedules.
-01/12/23 Selections created - Dalita will join the Req. meeting today for review and sign-off 
-28/11/23 To discuss with Dalita for details in Req.meeting today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2023 Invited business to requirements meeting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2023 Business invited to meeting.
-</t>
-  </si>
-  <si>
-    <t>14/12/2023 Received email from Deneshan to close. 
-waiting feedback from Dineshan</t>
-  </si>
-  <si>
-    <t>14/12/2023 Env related issue resolved. Testing progressed. 
-12/12/23 Themba:  Sofico to assist, development almost done,To schedule a meeting with Sofico</t>
-  </si>
-  <si>
-    <t>14/12/2023 Deployed in prod. Need to run job. 
-12/12/23 Waiting for Nicolene's feedback</t>
+    <t>Ready for deployment, Jane must test it again</t>
+  </si>
+  <si>
+    <t>12/12/23 Mandla : Deployed to  PROD</t>
+  </si>
+  <si>
+    <t>12/12/23 Deployed to  PROD</t>
+  </si>
+  <si>
+    <t>No attachment, only this information available,Cause possible due to increase in transaction load, black friday/cyber monday weekend.</t>
   </si>
 </sst>
 </file>
@@ -4554,7 +4541,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4654,9 +4641,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5022,7 +5006,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="78.81640625" style="1" customWidth="1"/>
@@ -8233,18 +8217,16 @@
   <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="10" customWidth="1"/>
+    <col min="2" max="4" width="18" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="66" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.1796875" style="10" customWidth="1"/>
     <col min="7" max="7" width="53.81640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="28" style="10" customWidth="1"/>
     <col min="9" max="9" width="17.1796875" style="10" customWidth="1"/>
@@ -8264,10 +8246,10 @@
         <v>410</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>411</v>
@@ -8356,7 +8338,7 @@
         <v>429</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J3" s="11">
         <v>45243.320138888892</v>
@@ -8384,7 +8366,7 @@
         <v>429</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J4" s="11">
         <v>45243.320138888892</v>
@@ -8412,16 +8394,13 @@
         <v>434</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J5" s="11">
         <v>45242.35</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -8443,16 +8422,13 @@
         <v>434</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J6" s="11">
         <v>45242.35</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -8462,7 +8438,7 @@
         <v>420</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>20</v>
@@ -8493,7 +8469,7 @@
         <v>483</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>440</v>
@@ -8560,7 +8536,7 @@
         <v>449</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>450</v>
@@ -8593,20 +8569,14 @@
       <c r="F11" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>1090</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>963</v>
+        <v>455</v>
       </c>
       <c r="J11" s="11">
         <v>45236.307638888888</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -8735,7 +8705,7 @@
         <v>476</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="J15" s="11">
         <v>45232.970833333333</v>
@@ -8751,7 +8721,7 @@
         <v>478</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>479</v>
@@ -8763,16 +8733,13 @@
         <v>481</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="J16" s="11">
         <v>45232.961805555555</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="10" t="s">
-        <v>1093</v>
-      </c>
     </row>
     <row r="17" spans="1:14" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
@@ -8782,7 +8749,7 @@
         <v>483</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>485</v>
@@ -8876,7 +8843,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>501</v>
@@ -8912,7 +8879,7 @@
         <v>443</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>505</v>
@@ -9019,7 +8986,7 @@
         <v>519</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>455</v>
@@ -9134,7 +9101,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>538</v>
       </c>
@@ -9142,7 +9109,7 @@
         <v>539</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>540</v>
@@ -9169,7 +9136,7 @@
         <v>45261</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="148" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9280,7 +9247,7 @@
         <v>559</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>560</v>
@@ -9304,7 +9271,7 @@
         <v>45260</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
@@ -9315,7 +9282,7 @@
         <v>483</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>563</v>
@@ -9346,7 +9313,7 @@
         <v>478</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>567</v>
@@ -9358,26 +9325,23 @@
         <v>515</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="J34" s="11">
         <v>45223.959722222222</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="10" t="s">
-        <v>1094</v>
-      </c>
     </row>
     <row r="35" spans="1:14" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>569</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>570</v>
@@ -9405,7 +9369,7 @@
         <v>559</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>573</v>
@@ -9485,7 +9449,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>584</v>
       </c>
@@ -9499,10 +9463,10 @@
         <v>585</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>1089</v>
+        <v>586</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>455</v>
@@ -9515,7 +9479,7 @@
     </row>
     <row r="40" spans="1:14" s="26" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>533</v>
@@ -9524,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>575</v>
@@ -9546,12 +9510,12 @@
         <v>45247</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>133</v>
@@ -9563,26 +9527,23 @@
         <v>10</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J41" s="11">
         <v>45218.609027777777</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>133</v>
@@ -9594,38 +9555,35 @@
         <v>10</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J42" s="11">
         <v>45218.609027777777</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="10" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:14" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>575</v>
@@ -9646,24 +9604,24 @@
         <v>45261</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>1092</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>430</v>
@@ -9676,7 +9634,7 @@
     </row>
     <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>133</v>
@@ -9688,26 +9646,23 @@
         <v>427</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>429</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J45" s="11">
         <v>45170.461111111108</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>133</v>
@@ -9719,41 +9674,38 @@
         <v>427</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>429</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J46" s="11">
         <v>45170.461111111108</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>12</v>
@@ -9764,12 +9716,12 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="10" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>133</v>
@@ -9778,13 +9730,13 @@
         <v>357</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>455</v>
@@ -9797,7 +9749,7 @@
     </row>
     <row r="49" spans="1:14" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>500</v>
@@ -9806,10 +9758,10 @@
         <v>34</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>476</v>
@@ -9830,12 +9782,12 @@
         <v>45264</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>133</v>
@@ -9844,16 +9796,16 @@
         <v>134</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>575</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>948</v>
+        <v>1025</v>
       </c>
       <c r="J50" s="11">
         <v>45148.777777777781</v>
@@ -9861,9 +9813,9 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>133</v>
@@ -9872,29 +9824,26 @@
         <v>134</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="J51" s="11">
         <v>45146.613888888889</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="10" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="52" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>133</v>
@@ -9903,13 +9852,13 @@
         <v>134</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>455</v>
@@ -9922,25 +9871,25 @@
     </row>
     <row r="53" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>455</v>
@@ -9953,25 +9902,25 @@
     </row>
     <row r="54" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="J54" s="11">
         <v>45132.376388888886</v>
@@ -9981,22 +9930,22 @@
     </row>
     <row r="55" spans="1:14" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>12</v>
@@ -10011,12 +9960,12 @@
         <v>466</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="121" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>64</v>
@@ -10025,10 +9974,10 @@
         <v>52</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>487</v>
@@ -10047,27 +9996,27 @@
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="10" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>443</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>443</v>
@@ -10084,22 +10033,22 @@
     </row>
     <row r="58" spans="1:14" ht="391.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>12</v>
@@ -10110,27 +10059,27 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>520</v>
@@ -10143,19 +10092,19 @@
     </row>
     <row r="60" spans="1:14" ht="290" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>443</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>542</v>
@@ -10173,12 +10122,12 @@
         <v>45267</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>133</v>
@@ -10187,16 +10136,16 @@
         <v>134</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>948</v>
+        <v>1025</v>
       </c>
       <c r="J61" s="11">
         <v>44634.680555555555</v>
@@ -10206,25 +10155,25 @@
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K62" s="3">
         <v>45195.863194444442</v>
@@ -10236,27 +10185,27 @@
         <v>45257</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="1" customFormat="1" ht="261" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>424</v>
@@ -10271,24 +10220,24 @@
         <v>45261</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="1" customFormat="1" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>455</v>
@@ -10303,12 +10252,12 @@
         <v>45257</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>75</v>
@@ -10317,10 +10266,10 @@
         <v>52</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>424</v>
@@ -10336,24 +10285,24 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>12</v>
@@ -10371,27 +10320,27 @@
         <v>45258</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>455</v>
@@ -10403,27 +10352,27 @@
         <v>45247</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>455</v>
@@ -10435,12 +10384,12 @@
         <v>45247</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="1" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>47</v>
@@ -10449,13 +10398,13 @@
         <v>52</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>455</v>
@@ -10467,30 +10416,30 @@
         <v>45247</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="1" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="22" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K70" s="11">
         <v>45152.397916666669</v>
@@ -10501,7 +10450,7 @@
     </row>
     <row r="71" spans="1:14" s="1" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="22" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>196</v>
@@ -10510,13 +10459,13 @@
         <v>52</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>455</v>
@@ -10528,22 +10477,22 @@
     </row>
     <row r="72" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="22" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>520</v>
@@ -10552,7 +10501,7 @@
         <v>44585.393750000003</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M72" s="1" t="e">
         <v>#N/A</v>
@@ -10563,54 +10512,54 @@
     </row>
     <row r="73" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="22" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="K73" s="3">
         <v>44687.383333333331</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M73" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="22" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>443</v>
@@ -10627,22 +10576,22 @@
     </row>
     <row r="75" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="22" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>455</v>
@@ -10651,7 +10600,7 @@
         <v>44832.890277777777</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M75" s="1" t="e">
         <v>#N/A</v>
@@ -10662,19 +10611,19 @@
     </row>
     <row r="76" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="22" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>443</v>
@@ -10683,7 +10632,7 @@
         <v>44854.445833333331</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="M76" s="1" t="e">
         <v>#N/A</v>
@@ -10694,22 +10643,22 @@
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="22" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>520</v>
@@ -10718,7 +10667,7 @@
         <v>44886.368055555555</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M77" s="1" t="e">
         <v>#N/A</v>
@@ -10729,22 +10678,22 @@
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="22" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>443</v>
@@ -10761,22 +10710,22 @@
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="22" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>455</v>
@@ -10785,7 +10734,7 @@
         <v>44951.544444444444</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M79" s="1" t="e">
         <v>#N/A</v>
@@ -10796,22 +10745,22 @@
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="22" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>551</v>
@@ -10831,22 +10780,22 @@
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="22" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>443</v>
@@ -10855,7 +10804,7 @@
         <v>44967.45416666667</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M81" s="1" t="e">
         <v>#N/A</v>
@@ -10866,7 +10815,7 @@
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="22" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>64</v>
@@ -10875,13 +10824,13 @@
         <v>65</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>551</v>
@@ -10901,19 +10850,19 @@
     </row>
     <row r="83" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>455</v>
@@ -10931,19 +10880,19 @@
     </row>
     <row r="84" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="22" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>443</v>
@@ -10952,7 +10901,7 @@
         <v>45082.374305555553</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="M84" s="1" t="e">
         <v>#N/A</v>
@@ -10963,22 +10912,22 @@
     </row>
     <row r="85" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="22" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>424</v>
@@ -10990,12 +10939,12 @@
         <v>#N/A</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="22" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>64</v>
@@ -11004,13 +10953,13 @@
         <v>65</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>551</v>
@@ -11030,22 +10979,22 @@
     </row>
     <row r="87" spans="1:14" s="1" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="22" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>455</v>
@@ -11060,27 +11009,27 @@
         <v>#N/A</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="1" customFormat="1" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>455</v>
@@ -11093,24 +11042,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>424</v>
@@ -11125,12 +11074,12 @@
         <v>#N/A</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1096</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="1" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="22" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>64</v>
@@ -11139,13 +11088,13 @@
         <v>9</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>424</v>
@@ -11160,12 +11109,12 @@
         <v>#N/A</v>
       </c>
       <c r="N90" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>64</v>
@@ -11174,13 +11123,13 @@
         <v>65</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>551</v>
@@ -11200,22 +11149,22 @@
     </row>
     <row r="92" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>455</v>
@@ -11235,22 +11184,22 @@
     </row>
     <row r="93" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="22" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>357</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>455</v>
@@ -11259,33 +11208,33 @@
         <v>45142.497916666667</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M93" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="1" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="22" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>443</v>
@@ -11294,7 +11243,7 @@
         <v>45144.781944444447</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M94" s="1" t="e">
         <v>#N/A</v>
@@ -11305,22 +11254,22 @@
     </row>
     <row r="95" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="22" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>443</v>
@@ -11329,7 +11278,7 @@
         <v>45146.679861111108</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="M95" s="1" t="e">
         <v>#N/A</v>
@@ -11340,7 +11289,7 @@
     </row>
     <row r="96" spans="1:14" s="1" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="22" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>64</v>
@@ -11349,13 +11298,13 @@
         <v>65</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>551</v>
@@ -11370,12 +11319,12 @@
         <v>#N/A</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="1" customFormat="1" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="22" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>161</v>
@@ -11384,13 +11333,13 @@
         <v>9</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>424</v>
@@ -11405,27 +11354,27 @@
         <v>#N/A</v>
       </c>
       <c r="N97" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="22" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>357</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>455</v>
@@ -11434,33 +11383,33 @@
         <v>45155.70416666667</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M98" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="22" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>455</v>
@@ -11480,22 +11429,22 @@
     </row>
     <row r="100" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="22" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>455</v>
@@ -11504,7 +11453,7 @@
         <v>45156.662499999999</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M100" s="1" t="e">
         <v>#N/A</v>
@@ -11515,22 +11464,22 @@
     </row>
     <row r="101" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="22" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>455</v>
@@ -11539,18 +11488,18 @@
         <v>45162.35</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M101" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="22" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>119</v>
@@ -11559,13 +11508,13 @@
         <v>120</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>455</v>
@@ -11574,7 +11523,7 @@
         <v>45162.431250000001</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M102" s="1" t="e">
         <v>#N/A</v>
@@ -11585,22 +11534,22 @@
     </row>
     <row r="103" spans="1:14" s="1" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>263</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>455</v>
@@ -11615,27 +11564,27 @@
         <v>#N/A</v>
       </c>
       <c r="N103" s="30" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="1" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="22" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>424</v>
@@ -11644,7 +11593,7 @@
         <v>45169.405555555553</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M104" s="1" t="e">
         <v>#N/A</v>
@@ -11655,22 +11604,22 @@
     </row>
     <row r="105" spans="1:14" s="1" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>424</v>
@@ -11682,27 +11631,27 @@
         <v>#N/A</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="22" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>455</v>
@@ -11722,7 +11671,7 @@
     </row>
     <row r="107" spans="1:14" s="1" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="22" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>133</v>
@@ -11731,13 +11680,13 @@
         <v>357</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>455</v>
@@ -11754,22 +11703,22 @@
     </row>
     <row r="108" spans="1:14" s="1" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="22" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>455</v>
@@ -11786,25 +11735,25 @@
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="22" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K109" s="3">
         <v>45195.54791666667</v>
@@ -11818,7 +11767,7 @@
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="22" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>47</v>
@@ -11827,16 +11776,16 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K110" s="3">
         <v>45195.92083333333</v>
@@ -11848,12 +11797,12 @@
         <v>#N/A</v>
       </c>
       <c r="N110" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="22" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>133</v>
@@ -11862,16 +11811,16 @@
         <v>357</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K111" s="3">
         <v>45204.518750000003</v>
@@ -11885,7 +11834,7 @@
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="22" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>133</v>
@@ -11894,13 +11843,13 @@
         <v>134</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="K112" s="3">
         <v>45208.392361111109</v>
@@ -11909,12 +11858,12 @@
         <v>#N/A</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="1" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="22" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>92</v>
@@ -11923,22 +11872,22 @@
         <v>9</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K113" s="3">
         <v>45208.427777777775</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M113" s="1" t="e">
         <v>#N/A</v>
@@ -11949,25 +11898,25 @@
     </row>
     <row r="114" spans="1:14" s="1" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="22" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>963</v>
+        <v>760</v>
       </c>
       <c r="K114" s="3">
         <v>45212.414583333331</v>
@@ -11976,12 +11925,12 @@
         <v>#N/A</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1095</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="22" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>75</v>
@@ -11990,13 +11939,13 @@
         <v>52</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>520</v>
@@ -12008,12 +11957,12 @@
         <v>#N/A</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="1" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="22" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>92</v>
@@ -12022,16 +11971,16 @@
         <v>9</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K116" s="3">
         <v>45215.868055555555</v>
@@ -12040,27 +11989,27 @@
         <v>#N/A</v>
       </c>
       <c r="N116" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="22" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>430</v>
@@ -12069,7 +12018,7 @@
         <v>45215.870833333334</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M117" s="1" t="e">
         <v>#N/A</v>
@@ -12080,22 +12029,22 @@
     </row>
     <row r="118" spans="1:14" s="1" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="22" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>455</v>
@@ -12110,36 +12059,36 @@
         <v>#N/A</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="K119" s="3">
         <v>45215.885416666664</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M119" s="1" t="e">
         <v>#N/A</v>
@@ -12150,28 +12099,28 @@
     </row>
     <row r="120" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>420</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>420</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>12</v>
@@ -12181,33 +12130,33 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>420</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>420</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>12</v>
@@ -12217,30 +12166,30 @@
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
       <c r="N121" s="18" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>551</v>
@@ -12250,63 +12199,63 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
       <c r="N122" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G124" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="H124" s="18" t="s">
         <v>875</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>873</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>12</v>
@@ -12316,30 +12265,30 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>12</v>
@@ -12349,30 +12298,30 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>420</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>424</v>
@@ -12382,99 +12331,99 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G128" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="H128" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="H128" s="18" t="s">
-        <v>893</v>
-      </c>
       <c r="I128" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H129" s="18" t="s">
         <v>575</v>
@@ -12487,60 +12436,60 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="261" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H130" s="18" t="s">
         <v>487</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>161</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H131" s="18" t="s">
         <v>487</v>
@@ -12553,160 +12502,160 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H133" s="18" t="s">
         <v>487</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J133" s="18"/>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B134" s="18"/>
       <c r="D134" s="18" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H134" s="18" t="s">
         <v>515</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="J134" s="18"/>
       <c r="K134" s="18"/>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="10" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H135" s="18" t="s">
         <v>575</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J135" s="18"/>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="10" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>462</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I136" s="18" t="s">
         <v>424</v>
@@ -12716,30 +12665,30 @@
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
       <c r="N136" s="18" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>357</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I137" s="18" t="s">
         <v>520</v>
@@ -12749,27 +12698,27 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>449</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H138" s="18" t="s">
         <v>487</v>
@@ -12782,96 +12731,96 @@
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J139" s="18"/>
       <c r="K139" s="18"/>
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F140" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="H140" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="G140" s="18" t="s">
+      <c r="I140" s="18" t="s">
         <v>956</v>
-      </c>
-      <c r="H140" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="I140" s="18" t="s">
-        <v>954</v>
       </c>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G141" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H141" s="10" t="s">
         <v>1007</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>1005</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>424</v>
@@ -12881,56 +12830,56 @@
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
       <c r="N141" s="10" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -12942,33 +12891,33 @@
       </c>
       <c r="G144" s="33"/>
       <c r="I144" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="N144" s="34" t="s">
-        <v>1097</v>
+        <v>845</v>
+      </c>
+      <c r="N144" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>81</v>
       </c>
@@ -12976,10 +12925,10 @@
         <v>134</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>672</v>
+        <v>1091</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>1088</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -12990,10 +12939,10 @@
         <v>134</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -13001,16 +12950,16 @@
         <v>210</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -13024,38 +12973,38 @@
         <v>542</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
@@ -13069,15 +13018,15 @@
         <v>27</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>554</v>
@@ -13086,61 +13035,61 @@
         <v>27</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" s="32" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -13174,11 +13123,11 @@
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -13203,30 +13152,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>414</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>478</v>
@@ -13235,13 +13184,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>551</v>
@@ -13250,7 +13199,7 @@
         <v>44585.393750000003</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>VLOOKUP(A2,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13263,7 +13212,7 @@
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>178</v>
@@ -13272,13 +13221,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>551</v>
@@ -13288,7 +13237,7 @@
         <v>44687.383333333331</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>VLOOKUP(A3,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13317,10 +13266,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="5">
@@ -13351,10 +13300,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I5" s="5">
         <v>44762.35833333333</v>
@@ -13371,7 +13320,7 @@
     </row>
     <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
@@ -13380,10 +13329,10 @@
         <v>484</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>551</v>
@@ -13403,22 +13352,22 @@
     </row>
     <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>455</v>
@@ -13427,7 +13376,7 @@
         <v>44832.890277777777</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K7" s="1" t="str">
         <f>VLOOKUP(A7,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13440,7 +13389,7 @@
     </row>
     <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -13449,10 +13398,10 @@
         <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>551</v>
@@ -13461,7 +13410,7 @@
         <v>44854.445833333331</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>VLOOKUP(A8,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13474,25 +13423,25 @@
     </row>
     <row r="9" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I9" s="5">
         <v>44854.451388888891</v>
@@ -13515,7 +13464,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -13524,10 +13473,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="I10" s="5">
         <v>44886.32916666667</v>
@@ -13544,7 +13493,7 @@
     </row>
     <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>478</v>
@@ -13553,13 +13502,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>551</v>
@@ -13568,7 +13517,7 @@
         <v>44886.368055555555</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>VLOOKUP(A11,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13581,7 +13530,7 @@
     </row>
     <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -13590,13 +13539,13 @@
         <v>484</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>455</v>
@@ -13628,10 +13577,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I13" s="5">
         <v>44902.30972222222</v>
@@ -13654,7 +13603,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -13663,13 +13612,13 @@
         <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I14" s="5">
         <v>44908.53125</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K14" s="1" t="e">
         <f>VLOOKUP(A14,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13694,10 +13643,10 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I15" s="5">
         <v>44949.552777777775</v>
@@ -13714,7 +13663,7 @@
     </row>
     <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>478</v>
@@ -13723,13 +13672,13 @@
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>551</v>
@@ -13738,7 +13687,7 @@
         <v>44951.544444444444</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>VLOOKUP(A16,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13751,7 +13700,7 @@
     </row>
     <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>64</v>
@@ -13760,13 +13709,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>430</v>
@@ -13788,7 +13737,7 @@
     </row>
     <row r="18" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>92</v>
@@ -13797,22 +13746,22 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I18" s="5">
         <v>44967.45416666667</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>VLOOKUP(A18,'Sprint 8'!A:A,1,FALSE)</f>
@@ -13840,7 +13789,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I19" s="5">
         <v>44977.440972222219</v>
@@ -13872,10 +13821,10 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="5">
@@ -13897,7 +13846,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -13926,7 +13875,7 @@
     </row>
     <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -13935,13 +13884,13 @@
         <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>455</v>
@@ -13978,17 +13927,17 @@
         <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="5">
         <v>45034.363194444442</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K23" s="1" t="e">
         <f>VLOOKUP(A23,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14017,10 +13966,10 @@
         <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="5">
@@ -14054,10 +14003,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="5">
@@ -14091,10 +14040,10 @@
         <v>54</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="5">
@@ -14113,19 +14062,19 @@
     </row>
     <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>455</v>
@@ -14144,7 +14093,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>42</v>
@@ -14153,10 +14102,10 @@
         <v>134</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>551</v>
@@ -14165,7 +14114,7 @@
         <v>45082.374305555553</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K28" s="1" t="str">
         <f>VLOOKUP(A28,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14178,22 +14127,22 @@
     </row>
     <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>424</v>
@@ -14213,7 +14162,7 @@
     </row>
     <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -14222,13 +14171,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>430</v>
@@ -14237,7 +14186,7 @@
         <v>45090.498611111114</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K30" s="1" t="str">
         <f>VLOOKUP(A30,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14250,7 +14199,7 @@
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -14259,13 +14208,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>455</v>
@@ -14289,7 +14238,7 @@
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>47</v>
@@ -14298,16 +14247,16 @@
         <v>189</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="5">
@@ -14328,22 +14277,22 @@
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>455</v>
@@ -14363,7 +14312,7 @@
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>478</v>
@@ -14372,13 +14321,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>455</v>
@@ -14388,7 +14337,7 @@
         <v>45105.627083333333</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K34" s="1" t="str">
         <f>VLOOKUP(A34,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14414,10 +14363,10 @@
         <v>61</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>424</v>
@@ -14439,7 +14388,7 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>478</v>
@@ -14448,13 +14397,13 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>455</v>
@@ -14493,7 +14442,7 @@
         <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>455</v>
@@ -14517,7 +14466,7 @@
     </row>
     <row r="38" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>64</v>
@@ -14526,13 +14475,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>424</v>
@@ -14554,7 +14503,7 @@
     </row>
     <row r="39" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>64</v>
@@ -14563,13 +14512,13 @@
         <v>65</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>455</v>
@@ -14597,7 +14546,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>69</v>
@@ -14606,10 +14555,10 @@
         <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="I40" s="5">
         <v>45132.659722222219</v>
@@ -14632,7 +14581,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>72</v>
@@ -14641,10 +14590,10 @@
         <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I41" s="5">
         <v>45138.887499999997</v>
@@ -14676,10 +14625,10 @@
         <v>77</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I42" s="5">
         <v>45138.9</v>
@@ -14702,7 +14651,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>79</v>
@@ -14711,10 +14660,10 @@
         <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="I43" s="5">
         <v>45138.901388888888</v>
@@ -14746,10 +14695,10 @@
         <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I44" s="5">
         <v>45138.909722222219</v>
@@ -14766,22 +14715,22 @@
     </row>
     <row r="45" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>455</v>
@@ -14803,22 +14752,22 @@
     </row>
     <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>455</v>
@@ -14827,7 +14776,7 @@
         <v>45142.497916666667</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K46" s="1" t="str">
         <f>VLOOKUP(A46,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14840,7 +14789,7 @@
     </row>
     <row r="47" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -14849,22 +14798,22 @@
         <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I47" s="5">
         <v>45144.781944444447</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K47" s="1" t="str">
         <f>VLOOKUP(A47,'Sprint 8'!A:A,1,FALSE)</f>
@@ -14892,10 +14841,10 @@
         <v>86</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="5">
@@ -14929,10 +14878,10 @@
         <v>90</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="5">
@@ -14966,10 +14915,10 @@
         <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="5">
@@ -14988,7 +14937,7 @@
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>42</v>
@@ -14997,23 +14946,23 @@
         <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="5">
         <v>45146.679861111108</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K51" s="1" t="str">
         <f>VLOOKUP(A51,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15027,7 +14976,7 @@
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>64</v>
@@ -15036,13 +14985,13 @@
         <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>455</v>
@@ -15066,7 +15015,7 @@
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>161</v>
@@ -15075,13 +15024,13 @@
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>424</v>
@@ -15105,22 +15054,22 @@
     </row>
     <row r="54" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>430</v>
@@ -15157,10 +15106,10 @@
         <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I55" s="5">
         <v>45149.490277777775</v>
@@ -15177,25 +15126,25 @@
     </row>
     <row r="56" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I56" s="5">
         <v>45152.397916666669</v>
@@ -15229,10 +15178,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I57" s="5">
         <v>45152.550694444442</v>
@@ -15264,10 +15213,10 @@
         <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I58" s="5">
         <v>45152.563194444447</v>
@@ -15299,10 +15248,10 @@
         <v>106</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I59" s="5">
         <v>45152.609027777777</v>
@@ -15319,22 +15268,22 @@
     </row>
     <row r="60" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>455</v>
@@ -15343,7 +15292,7 @@
         <v>45155.70416666667</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K60" s="1" t="str">
         <f>VLOOKUP(A60,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15356,22 +15305,22 @@
     </row>
     <row r="61" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>455</v>
@@ -15393,22 +15342,22 @@
     </row>
     <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>455</v>
@@ -15417,7 +15366,7 @@
         <v>45156.662499999999</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K62" s="1" t="str">
         <f>VLOOKUP(A62,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15445,10 +15394,10 @@
         <v>109</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I63" s="5">
         <v>45158.957638888889</v>
@@ -15465,22 +15414,22 @@
     </row>
     <row r="64" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>455</v>
@@ -15489,7 +15438,7 @@
         <v>45162.35</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K64" s="1" t="str">
         <f>VLOOKUP(A64,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15517,7 +15466,7 @@
         <v>67</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>455</v>
@@ -15539,7 +15488,7 @@
     </row>
     <row r="66" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>119</v>
@@ -15548,13 +15497,13 @@
         <v>120</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>455</v>
@@ -15563,7 +15512,7 @@
         <v>45162.431250000001</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K66" s="1" t="str">
         <f>VLOOKUP(A66,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15591,10 +15540,10 @@
         <v>114</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I67" s="5">
         <v>45163.977083333331</v>
@@ -15611,7 +15560,7 @@
     </row>
     <row r="68" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>263</v>
@@ -15620,13 +15569,13 @@
         <v>189</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>455</v>
@@ -15663,10 +15612,10 @@
         <v>117</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I69" s="5">
         <v>45166.365972222222</v>
@@ -15698,7 +15647,7 @@
         <v>122</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>455</v>
@@ -15707,7 +15656,7 @@
         <v>45167.354861111111</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K70" s="1" t="e">
         <f>VLOOKUP(A70,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15720,7 +15669,7 @@
     </row>
     <row r="71" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>92</v>
@@ -15729,13 +15678,13 @@
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>455</v>
@@ -15744,7 +15693,7 @@
         <v>45169.405555555553</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K71" s="1" t="str">
         <f>VLOOKUP(A71,'Sprint 8'!A:A,1,FALSE)</f>
@@ -15772,10 +15721,10 @@
         <v>126</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I72" s="5">
         <v>45170.393055555556</v>
@@ -15807,7 +15756,7 @@
         <v>129</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>430</v>
@@ -15844,7 +15793,7 @@
         <v>129</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>430</v>
@@ -15866,7 +15815,7 @@
     </row>
     <row r="75" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>33</v>
@@ -15875,13 +15824,13 @@
         <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>424</v>
@@ -15901,7 +15850,7 @@
     </row>
     <row r="76" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>47</v>
@@ -15910,13 +15859,13 @@
         <v>52</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>455</v>
@@ -15938,7 +15887,7 @@
     </row>
     <row r="77" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>92</v>
@@ -15947,13 +15896,13 @@
         <v>189</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>455</v>
@@ -15984,13 +15933,13 @@
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I78" s="6">
         <v>45187.386111111111</v>
@@ -16018,10 +15967,10 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I79" s="6">
         <v>45187.386111111111</v>
@@ -16049,10 +15998,10 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I80" s="6">
         <v>45187.600694444445</v>
@@ -16079,13 +16028,13 @@
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I81" s="6">
         <v>45187.600694444445</v>
@@ -16113,10 +16062,10 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I82" s="6">
         <v>45188.353472222225</v>
@@ -16144,10 +16093,10 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I83" s="6">
         <v>45188.353472222225</v>
@@ -16180,7 +16129,7 @@
         <v>143</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>455</v>
@@ -16217,10 +16166,10 @@
         <v>67</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I85" s="5">
         <v>45188.432638888888</v>
@@ -16239,7 +16188,7 @@
     </row>
     <row r="86" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>47</v>
@@ -16248,13 +16197,13 @@
         <v>357</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>455</v>
@@ -16286,19 +16235,19 @@
         <v>147</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I87" s="5">
         <v>45190.332638888889</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K87" s="1" t="e">
         <f>VLOOKUP(A87,'Sprint 8'!A:A,1,FALSE)</f>
@@ -16311,31 +16260,31 @@
     </row>
     <row r="88" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I88" s="5">
         <v>45191.577777777777</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K88" s="1" t="e">
         <f>VLOOKUP(A88,'Sprint 8'!A:A,1,FALSE)</f>
@@ -16348,22 +16297,22 @@
     </row>
     <row r="89" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>455</v>
@@ -16383,22 +16332,22 @@
     </row>
     <row r="90" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>455</v>
@@ -16418,22 +16367,22 @@
     </row>
     <row r="91" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>430</v>
@@ -16455,25 +16404,25 @@
     </row>
     <row r="92" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I92" s="5">
         <v>45195.863194444442</v>
@@ -16492,7 +16441,7 @@
     </row>
     <row r="93" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>47</v>
@@ -16501,16 +16450,16 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I93" s="5">
         <v>45195.92083333333</v>
@@ -16538,13 +16487,13 @@
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I94" s="6">
         <v>45196.393750000003</v>
@@ -16572,10 +16521,10 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I95" s="6">
         <v>45196.393750000003</v>
@@ -16603,10 +16552,10 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I96" s="6">
         <v>45198.500694444447</v>
@@ -16634,10 +16583,10 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I97" s="6">
         <v>45198.500694444447</v>
@@ -16665,10 +16614,10 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I98" s="6">
         <v>45198.695833333331</v>
@@ -16696,10 +16645,10 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I99" s="6">
         <v>45198.695833333331</v>
@@ -16726,13 +16675,13 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I100" s="6">
         <v>45201.350694444445</v>
@@ -16765,10 +16714,10 @@
         <v>159</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I101" s="5">
         <v>45202.351388888892</v>
@@ -16799,13 +16748,13 @@
         <v>162</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="I102" s="5">
         <v>45203.493750000001</v>
@@ -16839,10 +16788,10 @@
         <v>159</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I103" s="5">
         <v>45204.425694444442</v>
@@ -16861,25 +16810,25 @@
     </row>
     <row r="104" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I104" s="5">
         <v>45204.518750000003</v>
@@ -16899,7 +16848,7 @@
         <v>166</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>135</v>
@@ -16907,10 +16856,10 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I105" s="6">
         <v>45205.305555555555</v>
@@ -16937,13 +16886,13 @@
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I106" s="6">
         <v>45205.305555555555</v>
@@ -16970,13 +16919,13 @@
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I107" s="6">
         <v>45205.34652777778</v>
@@ -17005,10 +16954,10 @@
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="6">
@@ -17027,19 +16976,19 @@
     </row>
     <row r="109" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>455</v>
@@ -17069,10 +17018,10 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I110" s="6">
         <v>45208.425000000003</v>
@@ -17100,10 +17049,10 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I111" s="6">
         <v>45208.425000000003</v>
@@ -17121,7 +17070,7 @@
     </row>
     <row r="112" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>92</v>
@@ -17130,22 +17079,22 @@
         <v>9</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I112" s="5">
         <v>45208.427777777775</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K112" s="1" t="str">
         <f>VLOOKUP(A112,'Sprint 8'!A:A,1,FALSE)</f>
@@ -17173,10 +17122,10 @@
         <v>176</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I113" s="5">
         <v>45210.388194444444</v>
@@ -17208,10 +17157,10 @@
         <v>180</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I114" s="5">
         <v>45210.659722222219</v>
@@ -17228,7 +17177,7 @@
     </row>
     <row r="115" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>478</v>
@@ -17237,16 +17186,16 @@
         <v>27</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I115" s="5">
         <v>45212.414583333331</v>
@@ -17278,10 +17227,10 @@
         <v>183</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I116" s="5">
         <v>45215.373611111114</v>
@@ -17315,10 +17264,10 @@
         <v>186</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I117" s="5">
         <v>45215.65902777778</v>
@@ -17343,7 +17292,7 @@
         <v>188</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>190</v>
@@ -17352,10 +17301,10 @@
         <v>191</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I118" s="5">
         <v>45215.847222222219</v>
@@ -17372,7 +17321,7 @@
     </row>
     <row r="119" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>75</v>
@@ -17381,16 +17330,16 @@
         <v>52</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="I119" s="5">
         <v>45215.847916666666</v>
@@ -17419,10 +17368,10 @@
         <v>194</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I120" s="5">
         <v>45215.856249999997</v>
@@ -17454,10 +17403,10 @@
         <v>67</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="I121" s="5">
         <v>45215.865277777775</v>
@@ -17476,7 +17425,7 @@
     </row>
     <row r="122" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>196</v>
@@ -17485,13 +17434,13 @@
         <v>52</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>455</v>
@@ -17511,7 +17460,7 @@
     </row>
     <row r="123" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>92</v>
@@ -17520,16 +17469,16 @@
         <v>9</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I123" s="5">
         <v>45215.868055555555</v>
@@ -17546,7 +17495,7 @@
     </row>
     <row r="124" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>478</v>
@@ -17555,13 +17504,13 @@
         <v>27</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>430</v>
@@ -17570,7 +17519,7 @@
         <v>45215.870833333334</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K124" s="1" t="str">
         <f>VLOOKUP(A124,'Sprint 8'!A:A,1,FALSE)</f>
@@ -17583,7 +17532,7 @@
     </row>
     <row r="125" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>478</v>
@@ -17592,13 +17541,13 @@
         <v>27</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>455</v>
@@ -17620,7 +17569,7 @@
     </row>
     <row r="126" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>478</v>
@@ -17629,13 +17578,13 @@
         <v>27</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>430</v>
@@ -17644,7 +17593,7 @@
         <v>45215.885416666664</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K126" s="1" t="str">
         <f>VLOOKUP(A126,'Sprint 8'!A:A,1,FALSE)</f>
@@ -17663,13 +17612,13 @@
         <v>150</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I127" s="6">
         <v>45216.531944444447</v>
@@ -17695,10 +17644,10 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I128" s="6">
         <v>45216.85833333333</v>
@@ -17731,10 +17680,10 @@
         <v>67</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="I129" s="5">
         <v>45217.339583333334</v>
@@ -17753,25 +17702,25 @@
     </row>
     <row r="130" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K130" s="1" t="str">
         <f>VLOOKUP(A130,'Sprint 8'!A:A,1,FALSE)</f>
@@ -17790,13 +17739,13 @@
         <v>92</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="K131" s="1" t="str">
         <f>VLOOKUP(A131,'Sprint 8'!A:A,1,FALSE)</f>
@@ -17824,7 +17773,7 @@
         <v>206</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1" t="e">
@@ -17838,22 +17787,22 @@
     </row>
     <row r="133" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="I133" s="3">
         <v>45226</v>
@@ -17880,25 +17829,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Category xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <Infotype xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <FolderTag xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ef9b6011-d322-4043-a3b6-ccf7fa4e423a" xsi:nil="true"/>
-    <DocType xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <Interface xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Reference xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-    <Module xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17907,7 +17837,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007FC735DC00F3B345AD2E08F0730AD250" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc50dfeb856cd019212c98a7a8582416">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04534b2b-24ba-42a8-9151-7cc30551d5b5" xmlns:ns3="ef9b6011-d322-4043-a3b6-ccf7fa4e423a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="656ea1930c2d1cae735351d408190155" ns2:_="" ns3:_="">
     <xsd:import namespace="04534b2b-24ba-42a8-9151-7cc30551d5b5"/>
@@ -18218,24 +18148,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{230CDD1C-E867-4640-9178-D4A46E66BE79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04534b2b-24ba-42a8-9151-7cc30551d5b5"/>
-    <ds:schemaRef ds:uri="ef9b6011-d322-4043-a3b6-ccf7fa4e423a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Category xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <Infotype xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <FolderTag xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ef9b6011-d322-4043-a3b6-ccf7fa4e423a" xsi:nil="true"/>
+    <DocType xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <Interface xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Reference xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+    <Module xmlns="04534b2b-24ba-42a8-9151-7cc30551d5b5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27948D3F-4A64-43FA-B4DF-7F886EE59BB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18243,7 +18175,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85500B6B-C4ED-403E-897D-9A3239A2217F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18260,4 +18192,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{230CDD1C-E867-4640-9178-D4A46E66BE79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04534b2b-24ba-42a8-9151-7cc30551d5b5"/>
+    <ds:schemaRef ds:uri="ef9b6011-d322-4043-a3b6-ccf7fa4e423a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>